--- a/data/trans_bre/P1428-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1428-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.124388740506854</v>
+        <v>8.952851398400512</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.382956678416222</v>
+        <v>5.671511224955307</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.86890046635295</v>
+        <v>4.963068663825691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.967479260241147</v>
+        <v>9.060552258580733</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6716645717926795</v>
+        <v>0.6512072891296472</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.074938996396878</v>
+        <v>1.070299754781075</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9813579401373206</v>
+        <v>0.9717025157126298</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.9444392103986017</v>
+        <v>0.9935966441773978</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.66854489460857</v>
+        <v>16.3688990925355</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.33317750032536</v>
+        <v>10.55140812405182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.377784971298059</v>
+        <v>9.334983813867664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.53983252925187</v>
+        <v>15.71400094234242</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.703024635806396</v>
+        <v>1.671327507512162</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.326867556380536</v>
+        <v>3.278462648157091</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.847694869471249</v>
+        <v>2.939836541748203</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.716832968698468</v>
+        <v>2.865241650009613</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>1.83725710870677</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.905012971938761</v>
+        <v>1.90501297193876</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.070969483972981</v>
+        <v>7.753655765102656</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.352409625591974</v>
+        <v>5.457857287028995</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.222421623937183</v>
+        <v>3.878215545387874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.79618242362975</v>
+        <v>7.671541878435464</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9639535749687808</v>
+        <v>0.9592506226959987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7629061764121173</v>
+        <v>0.7646792333206991</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9437041283419724</v>
+        <v>0.8856652157109132</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.242998376057032</v>
+        <v>1.202886945938857</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.63376667039208</v>
+        <v>13.08987015267961</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.68542587651214</v>
+        <v>10.65171692689193</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.577686823230621</v>
+        <v>8.763009096163191</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.14553058795119</v>
+        <v>11.76736482996106</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.289165487769905</v>
+        <v>2.222112134941956</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.392321944871371</v>
+        <v>2.319449937323891</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.200877072365308</v>
+        <v>3.362527014670185</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.972037686353176</v>
+        <v>2.783092652686551</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.362509344305242</v>
+        <v>6.194339808730855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.153629278538999</v>
+        <v>2.993253985460587</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.657879690038255</v>
+        <v>2.734356735988907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.657181266560816</v>
+        <v>6.819289999326261</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.004928636925161</v>
+        <v>0.9985139201743679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4331235136861681</v>
+        <v>0.4216827512498411</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6553207733773754</v>
+        <v>0.6574618780510475</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1.294138011086448</v>
+        <v>1.368576162574371</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.30348406382597</v>
+        <v>11.2907237184427</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.72801777644718</v>
+        <v>8.655495050045856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.750270080416442</v>
+        <v>7.582842537622756</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.67181438115368</v>
+        <v>10.4697501176842</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.68925060153676</v>
+        <v>2.653282736488746</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.981356965856221</v>
+        <v>1.831019895229265</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.202825297502201</v>
+        <v>3.295929745404495</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.146817810540062</v>
+        <v>3.113719292509872</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.4254376036588814</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.005945129159945</v>
+        <v>1.005945129159944</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.05137970146555335</v>
+        <v>0.1531397491189277</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.165941427943481</v>
+        <v>2.610853647670731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.075059151899751</v>
+        <v>-1.176455783967386</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.654686470693711</v>
+        <v>3.558013461249358</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01756789498216257</v>
+        <v>-0.0117060771045854</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3944666293742544</v>
+        <v>0.3826991765112077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2329382157188046</v>
+        <v>-0.2489042286628343</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5284073695259177</v>
+        <v>0.4989219749080669</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.883673517438466</v>
+        <v>8.139980908367802</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.89633062142373</v>
+        <v>10.94257603554294</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.732522800894269</v>
+        <v>4.5213209850086</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.09820034095328</v>
+        <v>7.796293044418698</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.578692493674682</v>
+        <v>1.604250500811535</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.752264253406586</v>
+        <v>3.014700839307183</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.712365131405001</v>
+        <v>1.769144253226827</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.750563566353466</v>
+        <v>1.611500834852386</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.724430644255053</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.982928254678688</v>
+        <v>8.98292825467869</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.470897946233747</v>
@@ -1049,7 +1049,7 @@
         <v>1.580696722326509</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.692534663867652</v>
+        <v>1.692534663867653</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.828150153143895</v>
+        <v>8.844780988483871</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.829053003930214</v>
+        <v>5.88714783423144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.405563511997436</v>
+        <v>4.46159360502852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.935315752493962</v>
+        <v>7.845045037071438</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.128290959574046</v>
+        <v>1.144216930553974</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9985956564038024</v>
+        <v>1.032192525117139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.059994957190996</v>
+        <v>1.100018367268615</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.338257890344357</v>
+        <v>1.337597796639665</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.06775879323699</v>
+        <v>11.9833647319493</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.562303614174718</v>
+        <v>8.736409013540706</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.909606393073026</v>
+        <v>7.014156217651724</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.21118919312042</v>
+        <v>10.17569139607753</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.845141213289948</v>
+        <v>1.880794439103906</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.901111728676942</v>
+        <v>1.938081807533194</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.187537528063745</v>
+        <v>2.1848190572827</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.13758740870575</v>
+        <v>2.091116608716728</v>
       </c>
     </row>
     <row r="19">
